--- a/public/temp/users.xlsx
+++ b/public/temp/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,82 +421,106 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>HarunaAbdul Hakim</v>
+        <v>ijouhjiuhygfctdgyh</v>
       </c>
       <c r="B2" t="str">
-        <v>0546235611</v>
+        <v>0542345654</v>
+      </c>
+      <c r="C2" t="str">
+        <v>konmjik@erdftghj.ghj</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>KwadwoGyasi</v>
+        <v>xredfgvhjnbhvg</v>
       </c>
       <c r="B3" t="str">
-        <v>0501561576</v>
+        <v>054345677</v>
+      </c>
+      <c r="C3" t="str">
+        <v>hjhh@fgh.hh</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>kwadwoGyasi</v>
+        <v>fghjfdgfd</v>
       </c>
       <c r="B4" t="str">
-        <v>0243404705</v>
+        <v>0544354231</v>
+      </c>
+      <c r="C4" t="str">
+        <v>vcvc@fcb.gf</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>VitusBaanuo</v>
+        <v>fgbdffgfhg</v>
       </c>
       <c r="B5" t="str">
-        <v>0504206183</v>
+        <v>0543221433</v>
+      </c>
+      <c r="C5" t="str">
+        <v>fdf@vfbgf.fg</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>BlessingNtiamoah</v>
+        <v>gfgfcvfdfgf</v>
       </c>
       <c r="B6" t="str">
-        <v>0240994720</v>
+        <v>0953464534</v>
+      </c>
+      <c r="C6" t="str">
+        <v>fdf@hgh.gf</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>DellaKutsoati</v>
+        <v>jnkccxj</v>
       </c>
       <c r="B7" t="str">
-        <v>0243162207</v>
+        <v>046543566</v>
+      </c>
+      <c r="C7" t="str">
+        <v>ebsakyi@gmail.com</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>hxhnshdhsd</v>
+        <v>jhvg.mklj</v>
       </c>
       <c r="B8" t="str">
-        <v>0542518484</v>
+        <v>0543456765</v>
+      </c>
+      <c r="C8" t="str">
+        <v>knkjk</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>JemimaDarko</v>
+        <v>MohammedDemimi</v>
       </c>
       <c r="B9" t="str">
-        <v>0246760962</v>
+        <v>0541234567</v>
+      </c>
+      <c r="C9" t="str">
+        <v>mohammeddemimi@gmail.com</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>AlhassanIddrisu</v>
+        <v>NewClient</v>
       </c>
       <c r="B10" t="str">
-        <v>0203515141</v>
+        <v>0243212322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>JoshuaMensah</v>
+        <v>HarunaAbdul Hakim</v>
       </c>
       <c r="B11" t="str">
-        <v>0204669241</v>
+        <v>0546235611</v>
       </c>
       <c r="C11" t="str">
         <v/>
@@ -504,18 +528,21 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>DanielAgah</v>
+        <v>kwadwoGyasi</v>
       </c>
       <c r="B12" t="str">
-        <v>0205957418</v>
+        <v>0243404705</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>CoderOne</v>
+        <v>VitusBaanuo</v>
       </c>
       <c r="B13" t="str">
-        <v>0272777088</v>
+        <v>0504206183</v>
       </c>
       <c r="C13" t="str">
         <v/>
@@ -523,34 +550,43 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>EASakyi</v>
+        <v>BlessingNtiamoah</v>
       </c>
       <c r="B14" t="str">
-        <v>0543212322</v>
+        <v>0240994720</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Emmanuellamptey</v>
+        <v>DellaKutsoati</v>
       </c>
       <c r="B15" t="str">
-        <v>0541924062</v>
+        <v>0243162207</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>SumailaMohammed Sherif</v>
+        <v>hxhnshdhsd</v>
       </c>
       <c r="B16" t="str">
-        <v>0244687305</v>
+        <v>0542518484</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Dominic Aboagye</v>
+        <v>JemimaDarko</v>
       </c>
       <c r="B17" t="str">
-        <v>0247537111</v>
+        <v>0246760962</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -558,59 +594,65 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>SamuelGyabah</v>
+        <v>AlhassanIddrisu</v>
       </c>
       <c r="B18" t="str">
-        <v>0243673937</v>
+        <v>0203515141</v>
       </c>
       <c r="C18" t="str">
-        <v>sambah14@gmail.com</v>
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>DerrickArmah</v>
+        <v>JoshuaMensah</v>
       </c>
       <c r="B19" t="str">
-        <v>0203701433</v>
+        <v>0204669241</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>SamuelGyabah</v>
+        <v>DanielAgah</v>
       </c>
       <c r="B20" t="str">
-        <v>0243673937--</v>
+        <v>0205957418</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>EmmanuelArmah Derrick</v>
+        <v>Service ProviderOne</v>
       </c>
       <c r="B21" t="str">
-        <v>0257554249</v>
+        <v>0272777088</v>
       </c>
       <c r="C21" t="str">
-        <v>armahderrick07@gmail.com</v>
+        <v>co@gmail.comm</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>DieudonneKwame Agudah</v>
+        <v>EASakyi</v>
       </c>
       <c r="B22" t="str">
-        <v>0240886645</v>
+        <v>0543212322</v>
       </c>
       <c r="C22" t="str">
-        <v/>
+        <v>ebensakyi@gmail.com</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>DanielAsante</v>
+        <v>Emmanuellamptey</v>
       </c>
       <c r="B23" t="str">
-        <v>0550216288</v>
+        <v>0541924062</v>
       </c>
       <c r="C23" t="str">
         <v/>
@@ -618,91 +660,194 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>newrsp</v>
+        <v>SumailaMohammed Sherif</v>
       </c>
       <c r="B24" t="str">
-        <v>0541111111</v>
+        <v>0244687305</v>
       </c>
       <c r="C24" t="str">
-        <v>ebensakyi@gmail.com</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>ijuhbyvkmjnh</v>
+        <v>Dominic Aboagye</v>
       </c>
       <c r="B25" t="str">
-        <v>0543212311</v>
+        <v>0247537111</v>
       </c>
       <c r="C25" t="str">
-        <v>ebensakyi@gmail.comm</v>
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>FredrickMensah</v>
+        <v>SamuelGyabah</v>
       </c>
       <c r="B26" t="str">
-        <v>0598427304</v>
+        <v>0243673937</v>
       </c>
       <c r="C26" t="str">
-        <v>fredmens@gmail.com</v>
+        <v>sambah14@gmail.com</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>MichealOfori</v>
+        <v>DerrickArmah</v>
       </c>
       <c r="B27" t="str">
-        <v>0501411644</v>
+        <v>0203701433</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>HenryTenu</v>
+        <v>EmmanuelArmah Derrick</v>
       </c>
       <c r="B28" t="str">
-        <v>0246507811</v>
+        <v>0257554249</v>
+      </c>
+      <c r="C28" t="str">
+        <v>armahderrick07@gmail.com</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>kwadwoantwi</v>
+        <v>DieudonneKwame Agudah</v>
       </c>
       <c r="B29" t="str">
-        <v>0559786632</v>
+        <v>0240886645</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>JoshuaAsante</v>
+        <v>DanielAsante</v>
       </c>
       <c r="B30" t="str">
-        <v>0204533898</v>
+        <v>0550216288</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>DominicAboagye</v>
+        <v>newrsp</v>
       </c>
       <c r="B31" t="str">
-        <v>0209125718</v>
+        <v>0541111111</v>
+      </c>
+      <c r="C31" t="str">
+        <v>ebensakyi@gmail.com</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
+        <v>JoeDoe</v>
+      </c>
+      <c r="B32" t="str">
+        <v>0543212300</v>
+      </c>
+      <c r="C32" t="str">
+        <v>jd@gmail.com</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>FredrickcMensah</v>
+      </c>
+      <c r="B33" t="str">
+        <v>0598427304</v>
+      </c>
+      <c r="C33" t="str">
+        <v>fredmens@gmail.com</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>MichealOfori</v>
+      </c>
+      <c r="B34" t="str">
+        <v>0501411644</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>HenryTenu</v>
+      </c>
+      <c r="B35" t="str">
+        <v>0246507811</v>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>kwadwoantwi</v>
+      </c>
+      <c r="B36" t="str">
+        <v>0559786632</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>JoshuaAsante</v>
+      </c>
+      <c r="B37" t="str">
+        <v>0204533898</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Dominic StAboagye</v>
+      </c>
+      <c r="B38" t="str">
+        <v>0209125718</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
         <v>StorePlay</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B39" t="str">
         <v>0501111111</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>DoeJohn K.</v>
+      </c>
+      <c r="B40" t="str">
+        <v>0241111111</v>
+      </c>
+      <c r="C40" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E40"/>
   </ignoredErrors>
 </worksheet>
 </file>